--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13330,6 +13330,41 @@
         <v>485700</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I371" t="n">
+        <v>132300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13365,6 +13365,41 @@
         <v>132300</v>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2377900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13400,6 +13400,41 @@
         <v>2377900</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I373" t="n">
+        <v>749100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13435,6 +13435,41 @@
         <v>749100</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I374" t="n">
+        <v>280100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13470,6 +13470,41 @@
         <v>280100</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I375" t="n">
+        <v>555000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13505,6 +13505,41 @@
         <v>555000</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1352900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13540,6 +13540,41 @@
         <v>1352900</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2857200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13575,6 +13575,41 @@
         <v>2857200</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I378" t="n">
+        <v>987200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13610,6 +13610,41 @@
         <v>987200</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I379" t="n">
+        <v>4948900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13645,6 +13645,41 @@
         <v>4948900</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2149900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13680,6 +13680,41 @@
         <v>2149900</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I381" t="n">
+        <v>15705700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13715,6 +13715,41 @@
         <v>15705700</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I382" t="n">
+        <v>67838600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13750,6 +13750,76 @@
         <v>67838600</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I383" t="n">
+        <v>21364900</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I384" t="n">
+        <v>17461000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13820,6 +13820,76 @@
         <v>17461000</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I385" t="n">
+        <v>18443400</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I386" t="n">
+        <v>21171200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13890,6 +13890,41 @@
         <v>21171200</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I387" t="n">
+        <v>22178600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13925,6 +13925,41 @@
         <v>22178600</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I388" t="n">
+        <v>26758400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I388"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13960,6 +13960,41 @@
         <v>26758400</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I389" t="n">
+        <v>6577200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13995,6 +13995,41 @@
         <v>6577200</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I390" t="n">
+        <v>24383300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14030,6 +14030,76 @@
         <v>24383300</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I391" t="n">
+        <v>26783000</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I392" t="n">
+        <v>11433900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14100,6 +14100,41 @@
         <v>11433900</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I393" t="n">
+        <v>7091100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14135,6 +14135,41 @@
         <v>7091100</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I394" t="n">
+        <v>25455200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11617,11 +11617,11 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11635,28 +11635,28 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="F322" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="G322" t="n">
-        <v>0.33</v>
+        <v>0.285</v>
       </c>
       <c r="H322" t="n">
-        <v>0.34</v>
+        <v>0.295</v>
       </c>
       <c r="I322" t="n">
-        <v>20595800</v>
+        <v>2064000</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11670,28 +11670,28 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.34</v>
+        <v>0.295</v>
       </c>
       <c r="F323" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="G323" t="n">
-        <v>0.33</v>
+        <v>0.295</v>
       </c>
       <c r="H323" t="n">
-        <v>0.33</v>
+        <v>0.305</v>
       </c>
       <c r="I323" t="n">
-        <v>8014700</v>
+        <v>4405900</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11705,28 +11705,28 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F324" t="n">
-        <v>0.335</v>
+        <v>0.315</v>
       </c>
       <c r="G324" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="H324" t="n">
-        <v>0.325</v>
+        <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>5173200</v>
+        <v>5015500</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11740,28 +11740,28 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F325" t="n">
-        <v>0.33</v>
+        <v>0.315</v>
       </c>
       <c r="G325" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H325" t="n">
         <v>0.31</v>
       </c>
-      <c r="H325" t="n">
-        <v>0.32</v>
-      </c>
       <c r="I325" t="n">
-        <v>7830200</v>
+        <v>1272000</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11775,28 +11775,28 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F326" t="n">
-        <v>0.345</v>
+        <v>0.31</v>
       </c>
       <c r="G326" t="n">
-        <v>0.32</v>
+        <v>0.295</v>
       </c>
       <c r="H326" t="n">
-        <v>0.34</v>
+        <v>0.305</v>
       </c>
       <c r="I326" t="n">
-        <v>13244900</v>
+        <v>662700</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11810,28 +11810,28 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.34</v>
+        <v>0.305</v>
       </c>
       <c r="F327" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="G327" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="H327" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I327" t="n">
-        <v>7964100</v>
+        <v>3093400</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11845,28 +11845,28 @@
         </is>
       </c>
       <c r="E328" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F328" t="n">
         <v>0.335</v>
       </c>
-      <c r="F328" t="n">
-        <v>0.34</v>
-      </c>
       <c r="G328" t="n">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
       <c r="H328" t="n">
         <v>0.33</v>
       </c>
       <c r="I328" t="n">
-        <v>2743200</v>
+        <v>23573200</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11880,7 +11880,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="F329" t="n">
         <v>0.335</v>
@@ -11892,16 +11892,16 @@
         <v>0.325</v>
       </c>
       <c r="I329" t="n">
-        <v>2489800</v>
+        <v>4942300</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="F330" t="n">
         <v>0.335</v>
@@ -11924,19 +11924,19 @@
         <v>0.32</v>
       </c>
       <c r="H330" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I330" t="n">
-        <v>4698800</v>
+        <v>3641300</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11950,28 +11950,28 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="F331" t="n">
-        <v>0.325</v>
+        <v>0.355</v>
       </c>
       <c r="G331" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="H331" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I331" t="n">
-        <v>3053300</v>
+        <v>20595800</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11985,28 +11985,28 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F332" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="G332" t="n">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="H332" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I332" t="n">
-        <v>1932700</v>
+        <v>8014700</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12020,28 +12020,28 @@
         </is>
       </c>
       <c r="E333" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G333" t="n">
         <v>0.32</v>
       </c>
-      <c r="F333" t="n">
+      <c r="H333" t="n">
         <v>0.325</v>
       </c>
-      <c r="G333" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0.315</v>
-      </c>
       <c r="I333" t="n">
-        <v>2130600</v>
+        <v>5173200</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12055,28 +12055,28 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="F334" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G334" t="n">
-        <v>0.315</v>
+        <v>0.31</v>
       </c>
       <c r="H334" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="I334" t="n">
-        <v>4551800</v>
+        <v>7830200</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12090,28 +12090,28 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F335" t="n">
         <v>0.345</v>
       </c>
       <c r="G335" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="H335" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I335" t="n">
-        <v>5298600</v>
+        <v>13244900</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12125,28 +12125,28 @@
         </is>
       </c>
       <c r="E336" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G336" t="n">
         <v>0.33</v>
       </c>
-      <c r="F336" t="n">
+      <c r="H336" t="n">
         <v>0.33</v>
       </c>
-      <c r="G336" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0.32</v>
-      </c>
       <c r="I336" t="n">
-        <v>939700</v>
+        <v>7964100</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -12160,28 +12160,28 @@
         </is>
       </c>
       <c r="E337" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G337" t="n">
         <v>0.325</v>
       </c>
-      <c r="F337" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.32</v>
-      </c>
       <c r="H337" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I337" t="n">
-        <v>1419600</v>
+        <v>2743200</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="F338" t="n">
         <v>0.335</v>
@@ -12204,19 +12204,19 @@
         <v>0.32</v>
       </c>
       <c r="H338" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="I338" t="n">
-        <v>1135400</v>
+        <v>2489800</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12230,10 +12230,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="F339" t="n">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="G339" t="n">
         <v>0.32</v>
@@ -12242,16 +12242,16 @@
         <v>0.32</v>
       </c>
       <c r="I339" t="n">
-        <v>1017100</v>
+        <v>4698800</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -12265,28 +12265,28 @@
         </is>
       </c>
       <c r="E340" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F340" t="n">
         <v>0.325</v>
       </c>
-      <c r="F340" t="n">
-        <v>0.33</v>
-      </c>
       <c r="G340" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="H340" t="n">
         <v>0.32</v>
       </c>
       <c r="I340" t="n">
-        <v>627700</v>
+        <v>3053300</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12303,25 +12303,25 @@
         <v>0.32</v>
       </c>
       <c r="F341" t="n">
-        <v>0.335</v>
+        <v>0.325</v>
       </c>
       <c r="G341" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H341" t="n">
         <v>0.32</v>
       </c>
-      <c r="H341" t="n">
-        <v>0.325</v>
-      </c>
       <c r="I341" t="n">
-        <v>3134700</v>
+        <v>1932700</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -12341,22 +12341,22 @@
         <v>0.325</v>
       </c>
       <c r="G342" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="H342" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="I342" t="n">
-        <v>776300</v>
+        <v>2130600</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12370,28 +12370,28 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="F343" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="G343" t="n">
         <v>0.315</v>
       </c>
       <c r="H343" t="n">
-        <v>0.315</v>
+        <v>0.335</v>
       </c>
       <c r="I343" t="n">
-        <v>1875400</v>
+        <v>4551800</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12405,28 +12405,28 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.315</v>
+        <v>0.34</v>
       </c>
       <c r="F344" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H344" t="n">
         <v>0.33</v>
       </c>
-      <c r="G344" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0.32</v>
-      </c>
       <c r="I344" t="n">
-        <v>1549100</v>
+        <v>5298600</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12440,28 +12440,28 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="F345" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="G345" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="H345" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="I345" t="n">
-        <v>1830800</v>
+        <v>939700</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12475,28 +12475,28 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.315</v>
+        <v>0.325</v>
       </c>
       <c r="F346" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G346" t="n">
         <v>0.32</v>
       </c>
-      <c r="G346" t="n">
-        <v>0.31</v>
-      </c>
       <c r="H346" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I346" t="n">
-        <v>2462200</v>
+        <v>1419600</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12510,28 +12510,28 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F347" t="n">
-        <v>0.315</v>
+        <v>0.335</v>
       </c>
       <c r="G347" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="H347" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="I347" t="n">
-        <v>5352400</v>
+        <v>1135400</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12545,28 +12545,28 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F348" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G348" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="H348" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I348" t="n">
-        <v>3501400</v>
+        <v>1017100</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12580,28 +12580,28 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.305</v>
+        <v>0.325</v>
       </c>
       <c r="F349" t="n">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="G349" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="H349" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I349" t="n">
-        <v>2370800</v>
+        <v>627700</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12615,28 +12615,28 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="F350" t="n">
-        <v>0.315</v>
+        <v>0.335</v>
       </c>
       <c r="G350" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="H350" t="n">
-        <v>0.31</v>
+        <v>0.325</v>
       </c>
       <c r="I350" t="n">
-        <v>720100</v>
+        <v>3134700</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12650,28 +12650,28 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F351" t="n">
-        <v>0.31</v>
+        <v>0.325</v>
       </c>
       <c r="G351" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="H351" t="n">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
       <c r="I351" t="n">
-        <v>764900</v>
+        <v>776300</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12685,28 +12685,28 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="F352" t="n">
-        <v>0.305</v>
+        <v>0.325</v>
       </c>
       <c r="G352" t="n">
-        <v>0.3</v>
+        <v>0.315</v>
       </c>
       <c r="H352" t="n">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
       <c r="I352" t="n">
-        <v>481900</v>
+        <v>1875400</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12720,28 +12720,28 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
       <c r="F353" t="n">
-        <v>0.305</v>
+        <v>0.33</v>
       </c>
       <c r="G353" t="n">
-        <v>0.3</v>
+        <v>0.315</v>
       </c>
       <c r="H353" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="I353" t="n">
-        <v>461200</v>
+        <v>1549100</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12755,28 +12755,28 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
       <c r="F354" t="n">
-        <v>0.305</v>
+        <v>0.325</v>
       </c>
       <c r="G354" t="n">
-        <v>0.3</v>
+        <v>0.315</v>
       </c>
       <c r="H354" t="n">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
       <c r="I354" t="n">
-        <v>339200</v>
+        <v>1830800</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12790,28 +12790,28 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
       <c r="F355" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="G355" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H355" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I355" t="n">
-        <v>376500</v>
+        <v>2462200</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="F356" t="n">
         <v>0.315</v>
@@ -12834,19 +12834,19 @@
         <v>0.3</v>
       </c>
       <c r="H356" t="n">
-        <v>0.315</v>
+        <v>0.3</v>
       </c>
       <c r="I356" t="n">
-        <v>1394100</v>
+        <v>5352400</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12860,28 +12860,28 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.315</v>
+        <v>0.3</v>
       </c>
       <c r="F357" t="n">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
       <c r="G357" t="n">
-        <v>0.315</v>
+        <v>0.29</v>
       </c>
       <c r="H357" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I357" t="n">
-        <v>1779200</v>
+        <v>3501400</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12895,28 +12895,28 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="F358" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="G358" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H358" t="n">
         <v>0.31</v>
       </c>
-      <c r="H358" t="n">
-        <v>0.315</v>
-      </c>
       <c r="I358" t="n">
-        <v>687300</v>
+        <v>2370800</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12942,16 +12942,16 @@
         <v>0.31</v>
       </c>
       <c r="I359" t="n">
-        <v>462300</v>
+        <v>720100</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="F360" t="n">
         <v>0.31</v>
@@ -12974,19 +12974,19 @@
         <v>0.3</v>
       </c>
       <c r="H360" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I360" t="n">
-        <v>440200</v>
+        <v>764900</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -13009,19 +13009,19 @@
         <v>0.3</v>
       </c>
       <c r="H361" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="I361" t="n">
-        <v>1001900</v>
+        <v>481900</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="F362" t="n">
         <v>0.305</v>
@@ -13047,16 +13047,16 @@
         <v>0.305</v>
       </c>
       <c r="I362" t="n">
-        <v>498300</v>
+        <v>461200</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13076,22 +13076,22 @@
         <v>0.305</v>
       </c>
       <c r="G363" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="H363" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="I363" t="n">
-        <v>1468900</v>
+        <v>339200</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13105,28 +13105,28 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.295</v>
+        <v>0.305</v>
       </c>
       <c r="F364" t="n">
-        <v>0.295</v>
+        <v>0.305</v>
       </c>
       <c r="G364" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="H364" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="I364" t="n">
-        <v>3327700</v>
+        <v>376500</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13140,28 +13140,28 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.27</v>
+        <v>0.305</v>
       </c>
       <c r="F365" t="n">
-        <v>0.28</v>
+        <v>0.315</v>
       </c>
       <c r="G365" t="n">
-        <v>0.255</v>
+        <v>0.3</v>
       </c>
       <c r="H365" t="n">
-        <v>0.28</v>
+        <v>0.315</v>
       </c>
       <c r="I365" t="n">
-        <v>1862200</v>
+        <v>1394100</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13175,28 +13175,28 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.28</v>
+        <v>0.315</v>
       </c>
       <c r="F366" t="n">
-        <v>0.28</v>
+        <v>0.325</v>
       </c>
       <c r="G366" t="n">
-        <v>0.27</v>
+        <v>0.315</v>
       </c>
       <c r="H366" t="n">
-        <v>0.275</v>
+        <v>0.32</v>
       </c>
       <c r="I366" t="n">
-        <v>724500</v>
+        <v>1779200</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13210,28 +13210,28 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.275</v>
+        <v>0.32</v>
       </c>
       <c r="F367" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="G367" t="n">
-        <v>0.275</v>
+        <v>0.31</v>
       </c>
       <c r="H367" t="n">
-        <v>0.28</v>
+        <v>0.315</v>
       </c>
       <c r="I367" t="n">
-        <v>1712000</v>
+        <v>687300</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13245,28 +13245,28 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.285</v>
+        <v>0.315</v>
       </c>
       <c r="F368" t="n">
-        <v>0.285</v>
+        <v>0.315</v>
       </c>
       <c r="G368" t="n">
-        <v>0.28</v>
+        <v>0.305</v>
       </c>
       <c r="H368" t="n">
-        <v>0.285</v>
+        <v>0.31</v>
       </c>
       <c r="I368" t="n">
-        <v>247300</v>
+        <v>462300</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13280,28 +13280,28 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.285</v>
+        <v>0.305</v>
       </c>
       <c r="F369" t="n">
-        <v>0.295</v>
+        <v>0.31</v>
       </c>
       <c r="G369" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="H369" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I369" t="n">
-        <v>1778600</v>
+        <v>440200</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -13315,28 +13315,28 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
       <c r="F370" t="n">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
       <c r="G370" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="H370" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="I370" t="n">
-        <v>485700</v>
+        <v>1001900</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13350,28 +13350,28 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="F371" t="n">
-        <v>0.285</v>
+        <v>0.305</v>
       </c>
       <c r="G371" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="H371" t="n">
-        <v>0.285</v>
+        <v>0.305</v>
       </c>
       <c r="I371" t="n">
-        <v>132300</v>
+        <v>498300</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13385,28 +13385,28 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
       <c r="F372" t="n">
         <v>0.305</v>
       </c>
       <c r="G372" t="n">
-        <v>0.28</v>
+        <v>0.295</v>
       </c>
       <c r="H372" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="I372" t="n">
-        <v>2377900</v>
+        <v>1468900</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13420,28 +13420,28 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="F373" t="n">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="G373" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="H373" t="n">
-        <v>0.295</v>
+        <v>0.285</v>
       </c>
       <c r="I373" t="n">
-        <v>749100</v>
+        <v>3327700</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13455,28 +13455,28 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F374" t="n">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="G374" t="n">
-        <v>0.29</v>
+        <v>0.255</v>
       </c>
       <c r="H374" t="n">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="I374" t="n">
-        <v>280100</v>
+        <v>1862200</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13490,28 +13490,28 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="F375" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G375" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="H375" t="n">
-        <v>0.295</v>
+        <v>0.275</v>
       </c>
       <c r="I375" t="n">
-        <v>555000</v>
+        <v>724500</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13525,28 +13525,28 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.295</v>
+        <v>0.275</v>
       </c>
       <c r="F376" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="G376" t="n">
-        <v>0.295</v>
+        <v>0.275</v>
       </c>
       <c r="H376" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I376" t="n">
-        <v>1352900</v>
+        <v>1712000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13560,28 +13560,28 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.3</v>
+        <v>0.285</v>
       </c>
       <c r="F377" t="n">
-        <v>0.315</v>
+        <v>0.285</v>
       </c>
       <c r="G377" t="n">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="H377" t="n">
-        <v>0.31</v>
+        <v>0.285</v>
       </c>
       <c r="I377" t="n">
-        <v>2857200</v>
+        <v>247300</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13595,28 +13595,28 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.31</v>
+        <v>0.285</v>
       </c>
       <c r="F378" t="n">
-        <v>0.31</v>
+        <v>0.295</v>
       </c>
       <c r="G378" t="n">
-        <v>0.305</v>
+        <v>0.285</v>
       </c>
       <c r="H378" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
       <c r="I378" t="n">
-        <v>987200</v>
+        <v>1778600</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13630,28 +13630,28 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F379" t="n">
-        <v>0.315</v>
+        <v>0.29</v>
       </c>
       <c r="G379" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="H379" t="n">
-        <v>0.31</v>
+        <v>0.285</v>
       </c>
       <c r="I379" t="n">
-        <v>4948900</v>
+        <v>485700</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13665,28 +13665,28 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.3</v>
+        <v>0.285</v>
       </c>
       <c r="F380" t="n">
-        <v>0.305</v>
+        <v>0.285</v>
       </c>
       <c r="G380" t="n">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="H380" t="n">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="I380" t="n">
-        <v>2149900</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13700,28 +13700,28 @@
         </is>
       </c>
       <c r="E381" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F381" t="n">
         <v>0.305</v>
       </c>
-      <c r="F381" t="n">
-        <v>0.33</v>
-      </c>
       <c r="G381" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="H381" t="n">
-        <v>0.33</v>
+        <v>0.305</v>
       </c>
       <c r="I381" t="n">
-        <v>15705700</v>
+        <v>2377900</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13735,28 +13735,28 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.33</v>
+        <v>0.305</v>
       </c>
       <c r="F382" t="n">
-        <v>0.385</v>
+        <v>0.305</v>
       </c>
       <c r="G382" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="H382" t="n">
-        <v>0.36</v>
+        <v>0.295</v>
       </c>
       <c r="I382" t="n">
-        <v>67838600</v>
+        <v>749100</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13770,28 +13770,28 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="F383" t="n">
-        <v>0.385</v>
+        <v>0.295</v>
       </c>
       <c r="G383" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="H383" t="n">
-        <v>0.355</v>
+        <v>0.295</v>
       </c>
       <c r="I383" t="n">
-        <v>21364900</v>
+        <v>280100</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13805,28 +13805,28 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.345</v>
+        <v>0.295</v>
       </c>
       <c r="F384" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G384" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
       <c r="H384" t="n">
-        <v>0.325</v>
+        <v>0.295</v>
       </c>
       <c r="I384" t="n">
-        <v>17461000</v>
+        <v>555000</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13840,28 +13840,28 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.32</v>
+        <v>0.295</v>
       </c>
       <c r="F385" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="G385" t="n">
-        <v>0.315</v>
+        <v>0.295</v>
       </c>
       <c r="H385" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="I385" t="n">
-        <v>18443400</v>
+        <v>1352900</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13875,28 +13875,28 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F386" t="n">
-        <v>0.37</v>
+        <v>0.315</v>
       </c>
       <c r="G386" t="n">
-        <v>0.335</v>
+        <v>0.295</v>
       </c>
       <c r="H386" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I386" t="n">
-        <v>21171200</v>
+        <v>2857200</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13910,28 +13910,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.335</v>
+        <v>0.31</v>
       </c>
       <c r="F387" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="G387" t="n">
-        <v>0.33</v>
+        <v>0.305</v>
       </c>
       <c r="H387" t="n">
-        <v>0.37</v>
+        <v>0.305</v>
       </c>
       <c r="I387" t="n">
-        <v>22178600</v>
+        <v>987200</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13945,28 +13945,28 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.375</v>
+        <v>0.31</v>
       </c>
       <c r="F388" t="n">
-        <v>0.39</v>
+        <v>0.315</v>
       </c>
       <c r="G388" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="H388" t="n">
-        <v>0.355</v>
+        <v>0.31</v>
       </c>
       <c r="I388" t="n">
-        <v>26758400</v>
+        <v>4948900</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13980,28 +13980,28 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="F389" t="n">
-        <v>0.365</v>
+        <v>0.305</v>
       </c>
       <c r="G389" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="H389" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I389" t="n">
-        <v>6577200</v>
+        <v>2149900</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14015,28 +14015,28 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.345</v>
+        <v>0.305</v>
       </c>
       <c r="F390" t="n">
-        <v>0.345</v>
+        <v>0.33</v>
       </c>
       <c r="G390" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="H390" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I390" t="n">
-        <v>24383300</v>
+        <v>15705700</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14050,28 +14050,28 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.285</v>
+        <v>0.33</v>
       </c>
       <c r="F391" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G391" t="n">
         <v>0.32</v>
       </c>
-      <c r="G391" t="n">
-        <v>0.28</v>
-      </c>
       <c r="H391" t="n">
-        <v>0.315</v>
+        <v>0.36</v>
       </c>
       <c r="I391" t="n">
-        <v>26783000</v>
+        <v>67838600</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14085,28 +14085,28 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="F392" t="n">
-        <v>0.33</v>
+        <v>0.385</v>
       </c>
       <c r="G392" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="H392" t="n">
-        <v>0.3</v>
+        <v>0.355</v>
       </c>
       <c r="I392" t="n">
-        <v>11433900</v>
+        <v>21364900</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14120,53 +14120,368 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.29</v>
+        <v>0.345</v>
       </c>
       <c r="F393" t="n">
-        <v>0.295</v>
+        <v>0.35</v>
       </c>
       <c r="G393" t="n">
-        <v>0.28</v>
+        <v>0.305</v>
       </c>
       <c r="H393" t="n">
-        <v>0.285</v>
+        <v>0.325</v>
       </c>
       <c r="I393" t="n">
-        <v>7091100</v>
+        <v>17461000</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I394" t="n">
+        <v>18443400</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I395" t="n">
+        <v>21171200</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I396" t="n">
+        <v>22178600</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I397" t="n">
+        <v>26758400</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I398" t="n">
+        <v>6577200</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I399" t="n">
+        <v>24383300</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I400" t="n">
+        <v>26783000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I401" t="n">
+        <v>11433900</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I402" t="n">
+        <v>7091100</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B403" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>0202</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>RGTECH</t>
-        </is>
-      </c>
-      <c r="E394" t="n">
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
         <v>0.28</v>
       </c>
-      <c r="F394" t="n">
+      <c r="F403" t="n">
         <v>0.285</v>
       </c>
-      <c r="G394" t="n">
+      <c r="G403" t="n">
         <v>0.245</v>
       </c>
-      <c r="H394" t="n">
+      <c r="H403" t="n">
         <v>0.27</v>
       </c>
-      <c r="I394" t="n">
+      <c r="I403" t="n">
         <v>25455200</v>
       </c>
     </row>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14485,6 +14485,41 @@
         <v>25455200</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I404" t="n">
+        <v>11778800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14520,6 +14520,41 @@
         <v>11778800</v>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I405" t="n">
+        <v>8049600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14555,6 +14555,41 @@
         <v>8049600</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I406" t="n">
+        <v>4297200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14590,6 +14590,41 @@
         <v>4297200</v>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I407" t="n">
+        <v>10138900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14625,6 +14625,41 @@
         <v>10138900</v>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I408" t="n">
+        <v>12739900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14660,6 +14660,41 @@
         <v>12739900</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I409" t="n">
+        <v>6123200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14695,6 +14695,41 @@
         <v>6123200</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I410" t="n">
+        <v>7620400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14730,6 +14730,41 @@
         <v>7620400</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I411" t="n">
+        <v>7829200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14765,6 +14765,41 @@
         <v>7829200</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3293200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14800,6 +14800,41 @@
         <v>3293200</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I413" t="n">
+        <v>4417000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14835,6 +14835,41 @@
         <v>4417000</v>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3895500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14870,6 +14870,41 @@
         <v>3895500</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I415" t="n">
+        <v>18267700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14905,6 +14905,41 @@
         <v>18267700</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I416" t="n">
+        <v>20425200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14940,6 +14940,41 @@
         <v>20425200</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I417" t="n">
+        <v>11949200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14975,6 +14975,41 @@
         <v>11949200</v>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I418" t="n">
+        <v>3406900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15010,6 +15010,41 @@
         <v>3406900</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I419" t="n">
+        <v>12177300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15045,6 +15045,41 @@
         <v>12177300</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I420" t="n">
+        <v>15500100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15080,6 +15080,41 @@
         <v>15500100</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I421" t="n">
+        <v>7622200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15115,6 +15115,41 @@
         <v>7622200</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I422" t="n">
+        <v>12317400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15150,6 +15150,41 @@
         <v>12317400</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5044200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15185,6 +15185,41 @@
         <v>5044200</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2047900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15220,6 +15220,41 @@
         <v>2047900</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I425" t="n">
+        <v>5664000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15255,6 +15255,41 @@
         <v>5664000</v>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I426" t="n">
+        <v>8015200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15290,6 +15290,41 @@
         <v>8015200</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I427" t="n">
+        <v>17849600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15325,6 +15325,41 @@
         <v>17849600</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I428" t="n">
+        <v>9504200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15360,6 +15360,76 @@
         <v>9504200</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I429" t="n">
+        <v>6466400</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I430" t="n">
+        <v>6077000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15430,6 +15430,41 @@
         <v>6077000</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3260900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15465,6 +15465,111 @@
         <v>3260900</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2172700</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I433" t="n">
+        <v>21232200</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I434" t="n">
+        <v>24746900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15570,6 +15570,41 @@
         <v>24746900</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I435" t="n">
+        <v>11474800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15605,6 +15605,41 @@
         <v>11474800</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I436" t="n">
+        <v>7156700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0202.xlsx
+++ b/data/0202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15640,6 +15640,111 @@
         <v>7156700</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I437" t="n">
+        <v>12242500</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I438" t="n">
+        <v>4124600</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I439" t="n">
+        <v>7678700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
